--- a/Github Netflix Matrix Model.xlsx
+++ b/Github Netflix Matrix Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Grous\OneDrive - Ark Investment Management\Grous\Streaming Work\OTT &amp; Cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="8_{04C39B8C-9FE2-4E9C-ADD7-64EE9EDC0ADD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C7A416F-C530-459F-B59D-8DAF7CC28309}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{04C39B8C-9FE2-4E9C-ADD7-64EE9EDC0ADD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{16661026-3567-4D7D-8924-272FAC5ED9E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B35AE25-BD8A-42D4-8938-336988F30551}"/>
+    <workbookView xWindow="-13185" yWindow="-18270" windowWidth="29040" windowHeight="17640" xr2:uid="{6B35AE25-BD8A-42D4-8938-336988F30551}"/>
   </bookViews>
   <sheets>
     <sheet name="Netflix Content Matrix" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{C53214FE-5C0E-433B-B034-F7021E66D7FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicholas Grous:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+We use google trends to estimate the five year viewing. If you have any questions about this please feel free to reach out and we can explain further</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C19" authorId="0" shapeId="0" xr:uid="{AF110C93-68A1-43BB-906B-CA9A259A8373}">
       <text>
         <r>
@@ -90,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Netflix Movie Calculator</t>
   </si>
@@ -277,6 +301,9 @@
   <si>
     <t xml:space="preserve">Netflix Original Content "Profitability" Matrix </t>
   </si>
+  <si>
+    <t>Hello, we hope you are enjoying our tool! Please feel free to adjust any of the cells highlighted in yellow. To get started we suggest you try some of the other examples we have provided you with. We also have a blog about our work with this tool that can be found here: https://ark-invest.com/research/netflix-original-content. If you have any questions please feel free to reach out!</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +317,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +443,14 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Tw Cen MT"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -927,7 +966,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1014,120 +1053,123 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="16" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="44" fontId="16" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1167,6 +1209,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>193674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390236</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A58843C-629D-4A2A-B11F-2067CD919D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9161318" y="10342129"/>
+          <a:ext cx="5121275" cy="1920875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4834920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0379EDC3-CB63-4AD5-9A13-D17CE1C05A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="722540" y="5197777"/>
+          <a:ext cx="5118100" cy="1920875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063A6DE7-6F9B-4325-8658-462BB3CC084D}">
   <dimension ref="B1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,74 +1649,74 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:20" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="39"/>
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
       <c r="T3" s="18"/>
     </row>
     <row r="4" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58"/>
+      <c r="C4" s="41"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
       <c r="T4" s="18"/>
     </row>
     <row r="5" spans="2:20" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="60">
         <v>40000000</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="46" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="47" t="s">
         <v>30</v>
       </c>
       <c r="T5" s="19"/>
@@ -1573,13 +1725,13 @@
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="65">
         <v>3.5</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="23">
@@ -1622,15 +1774,15 @@
         <f t="shared" si="0"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="49"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="48"/>
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="2:20" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="66">
         <v>175000000</v>
       </c>
       <c r="E7" s="30">
@@ -1692,10 +1844,10 @@
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="41"/>
       <c r="E8" s="32">
         <f>(E7+$C$18)</f>
         <v>50</v>
@@ -1758,7 +1910,7 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="67">
         <v>0.1</v>
       </c>
       <c r="E9" s="32">
@@ -1823,7 +1975,7 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="68">
         <v>0.15</v>
       </c>
       <c r="E10" s="32">
@@ -2015,10 +2167,10 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="41"/>
       <c r="E13" s="32">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -2081,7 +2233,7 @@
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="63">
         <v>207</v>
       </c>
       <c r="E14" s="32">
@@ -2146,7 +2298,7 @@
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="64">
         <v>745</v>
       </c>
       <c r="E15" s="32">
@@ -2211,7 +2363,7 @@
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="72">
         <f>SUM(C14:C15)/C14</f>
         <v>4.5990338164251208</v>
       </c>
@@ -2274,10 +2426,10 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="41"/>
       <c r="E17" s="32">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -2340,107 +2492,163 @@
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="60">
         <v>10</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
+      <c r="E18" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="19" spans="2:20" ht="23" x14ac:dyDescent="0.5">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="61">
         <v>0.17</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="62">
         <v>0.05</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="C21" s="58"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
     </row>
     <row r="23" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="C23" s="41"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
     </row>
     <row r="24" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
     </row>
     <row r="25" spans="2:20" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="C25" s="36"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
     </row>
     <row r="26" spans="2:20" ht="18" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
@@ -2508,10 +2716,10 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="60"/>
+      <c r="C31" s="36"/>
       <c r="G31" s="3"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -2585,10 +2793,10 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="2:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="60"/>
+      <c r="C37" s="36"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -2641,10 +2849,10 @@
       </c>
     </row>
     <row r="43" spans="2:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="70"/>
     </row>
     <row r="44" spans="2:15" ht="18" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
@@ -2687,8 +2895,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w3J0UxkQgqa4AKEj99jbrwQjUaHlVSIOhsqh/XRut+y88rkxYFd9MG9g9jFOVZ9/IVw1/tqkkF3wr2+LKGASIA==" saltValue="tX2j760Y1OHUv8mUvudH4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="E3:R4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E18:R25"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
@@ -2699,13 +2914,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E3:R4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E18:R19"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:P17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -2727,7 +2935,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2735,7 +2944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C799E-C25A-4279-B945-AE6446E55FD9}">
   <dimension ref="B3:U18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2743,365 +2954,366 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xdaxMIR8qi0BvRHAZVBo0I52OFV2KGDPqJfZzgB/ohhA4ylARQHQhTHMbOEpD7bM6mfu60vhCKOdOrKtCZi1zQ==" saltValue="i1ATDBqK2x7h2dF+Gs9moQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B3:U18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3112,15 +3324,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFF95800E9118647B042CFC77306CCC7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71e6a7a9c7cc44d086c75ec790663f01">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9a9cc10b-3eb4-4b18-98b7-e9649b378b57" xmlns:ns4="66c91f0f-5a93-475e-b21a-d4be28305545" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f46126f372dc8edd60c36e8d6907d6d" ns3:_="" ns4:_="">
     <xsd:import namespace="9a9cc10b-3eb4-4b18-98b7-e9649b378b57"/>
@@ -3331,17 +3534,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E159920B-7C6F-46C7-BCF1-EA601D605AC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="66c91f0f-5a93-475e-b21a-d4be28305545"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="9a9cc10b-3eb4-4b18-98b7-e9649b378b57"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
@@ -3349,14 +3561,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A7102C-BE42-45FE-B375-C3F2AB77E9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912AC2E9-E3D2-4F57-A35F-A52A9EAEF8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3373,4 +3577,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A7102C-BE42-45FE-B375-C3F2AB77E9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>